--- a/xlsx/管理信息系统_intext.xlsx
+++ b/xlsx/管理信息系统_intext.xlsx
@@ -65,25 +65,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E5%AE%B6%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>專家系統</t>
+    <t>专家系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E7%AE%A1%E6%94%AF%E6%8F%B4%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>主管支援系統</t>
+    <t>主管支援系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%88%E6%A1%88</t>
   </si>
   <si>
-    <t>專案</t>
+    <t>专案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>組織</t>
+    <t>组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AE%A1%E7%90%86</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E6%A5%AD%E6%99%BA%E8%83%BD</t>
   </si>
   <si>
-    <t>商業智能</t>
+    <t>商业智能</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B0%E6%8D%AE%E6%8C%96%E6%8E%98</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A%E7%A7%91%E6%8A%80%E7%9B%A3%E7%AE%A1</t>
   </si>
   <si>
-    <t>資訊科技監管</t>
+    <t>资讯科技监管</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AF%86%E5%BA%93</t>
@@ -125,13 +125,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9B%AE%E6%A8%99%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>目標管理</t>
+    <t>目标管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B7%9A%E4%B8%8A%E5%88%86%E6%9E%90%E8%99%95%E7%90%86</t>
   </si>
   <si>
-    <t>線上分析處理</t>
+    <t>线上分析处理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%81%E4%B8%9A%E6%9E%B6%E6%9E%84</t>
@@ -143,13 +143,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A%E7%A7%91%E6%8A%80%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>資訊科技管理</t>
+    <t>资讯科技管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
